--- a/biology/Zoologie/Amerotyphlops_trinitatus/Amerotyphlops_trinitatus.xlsx
+++ b/biology/Zoologie/Amerotyphlops_trinitatus/Amerotyphlops_trinitatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amerotyphlops trinitatus est une espèce de serpents de la famille des Typhlopidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amerotyphlops trinitatus est une espèce de serpents de la famille des Typhlopidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'île de Trinité à Trinité-et-Tobago[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'île de Trinité à Trinité-et-Tobago.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amerotyphlops trinitatus[2] mesure jusqu'à 240 mm. Cette espèce présente un dos jaune avec des rangées de taches brunes. Son museau et sa queue sont également jaunes, cette dernière particularité la distinguant des autres espèces de Typhlops.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amerotyphlops trinitatus mesure jusqu'à 240 mm. Cette espèce présente un dos jaune avec des rangées de taches brunes. Son museau et sa queue sont également jaunes, cette dernière particularité la distinguant des autres espèces de Typhlops.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, trinitatus, lui a été donné en référence au lieu de sa découverte[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, trinitatus, lui a été donné en référence au lieu de sa découverte.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Richmond, 1965 : A new species of blind snake, Typhlops, from Trinidad. Proceedings of the Biological Society of Washington, vol. 78, no 22, p. 121-124 (texte intégral).</t>
         </is>
